--- a/wikipedia_validation_sheets/Gastroparesis DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Gastroparesis DISNET VALIDATION.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{86DE128A-4284-484C-9191-F431F4EA518F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D539F7E8-BEDE-574C-90BC-F17DF84CEC11}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38560" yWindow="460" windowWidth="20500" windowHeight="21060" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="149">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -421,6 +426,57 @@
   </si>
   <si>
     <t>solid masses of undigested food</t>
+  </si>
+  <si>
+    <t>hypochlorhydria</t>
+  </si>
+  <si>
+    <t>Hypochlorhydria</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>Affect, NOS</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>Emotions</t>
+  </si>
+  <si>
+    <t>complications</t>
+  </si>
+  <si>
+    <t>Complication</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>Thinking, function</t>
+  </si>
+  <si>
+    <t>cancer</t>
+  </si>
+  <si>
+    <t>Malignant neoplasms</t>
+  </si>
+  <si>
+    <t>[neop]</t>
+  </si>
+  <si>
+    <t>autoimmune</t>
+  </si>
+  <si>
+    <t>Autoimmune reaction</t>
   </si>
 </sst>
 </file>
@@ -801,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -884,6 +940,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1252,62 +1311,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -2843,115 +2902,360 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="40"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="42"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="36" t="s">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="40"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="42"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="37" t="s">
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="23" t="s">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="24" t="s">
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="23" t="s">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="24" t="s">
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="23" t="s">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="24" t="s">
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="38" t="s">
+    <row r="69" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="39" t="s">
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="39" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
